--- a/Ing_economica/labora2/LAB2ALUM.xlsx
+++ b/Ing_economica/labora2/LAB2ALUM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris Pat\Desktop\U\Semestre_10\Ing_economica\labora2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB99132C-F724-481D-9747-F428A1742E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293E0D59-33F7-4183-B1F6-E56EB110199F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD6C3AEC-807D-4EAA-89B3-9902CE2E14CF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Laboratorio #2 Cap. 3</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>1,500,000=x(1+2*(p/f,8%,3)</t>
+  </si>
+  <si>
+    <t>signo negativo indica que son depositos</t>
+  </si>
+  <si>
+    <t>1.5=x(1+2fa)</t>
   </si>
 </sst>
 </file>
@@ -499,17 +505,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470FA719-C51E-44E1-BDAD-D63AF08A8D6E}">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -667,7 +673,10 @@
         <f>C20+B20</f>
         <v>8000</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <f>-PMT($C$18,$A$30,$D$20)</f>
+        <v>1301.9631590600929</v>
+      </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -684,7 +693,14 @@
         <f t="shared" ref="D21:D30" si="0">C21+B21</f>
         <v>600</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <f t="shared" ref="E21:E30" si="1">-PMT($C$18,$A$30,$D$20)</f>
+        <v>1301.9631590600929</v>
+      </c>
+      <c r="F21" s="1">
+        <f>E21+D21</f>
+        <v>1901.9631590600929</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -700,6 +716,14 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
+      <c r="E22" s="1">
+        <f t="shared" si="1"/>
+        <v>1301.9631590600929</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" ref="F22:F32" si="2">E22+D22</f>
+        <v>1901.9631590600929</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
@@ -715,6 +739,14 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
+      <c r="E23" s="1">
+        <f t="shared" si="1"/>
+        <v>1301.9631590600929</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="2"/>
+        <v>1901.9631590600929</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
@@ -730,6 +762,14 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
+      <c r="E24" s="1">
+        <f t="shared" si="1"/>
+        <v>1301.9631590600929</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="2"/>
+        <v>1901.9631590600929</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -745,6 +785,14 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
+      <c r="E25" s="1">
+        <f t="shared" si="1"/>
+        <v>1301.9631590600929</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="2"/>
+        <v>1901.9631590600929</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -760,6 +808,14 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
+      <c r="E26" s="1">
+        <f t="shared" si="1"/>
+        <v>1301.9631590600929</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="2"/>
+        <v>1901.9631590600929</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -775,6 +831,14 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
+      <c r="E27" s="1">
+        <f t="shared" si="1"/>
+        <v>1301.9631590600929</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="2"/>
+        <v>1901.9631590600929</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
@@ -790,6 +854,14 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
+      <c r="E28" s="1">
+        <f t="shared" si="1"/>
+        <v>1301.9631590600929</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="2"/>
+        <v>1901.9631590600929</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
@@ -805,6 +877,14 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
+      <c r="E29" s="1">
+        <f t="shared" si="1"/>
+        <v>1301.9631590600929</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="2"/>
+        <v>1901.9631590600929</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
@@ -820,6 +900,14 @@
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
+      <c r="E30" s="1">
+        <f t="shared" si="1"/>
+        <v>1301.9631590600929</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="2"/>
+        <v>1901.9631590600929</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
@@ -829,15 +917,17 @@
         <f>NPV(C18,D21:D30)+D20</f>
         <v>11686.740263422807</v>
       </c>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="5">
-        <f>PMT(C18,A30,D31)</f>
-        <v>-1901.9631590600927</v>
-      </c>
+        <f>-PMT(C18,A30,D31)</f>
+        <v>1901.9631590600927</v>
+      </c>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D33" s="1"/>
@@ -948,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>12</v>
       </c>
@@ -956,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>13</v>
       </c>
@@ -964,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>14</v>
       </c>
@@ -972,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>15</v>
       </c>
@@ -980,69 +1070,72 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E53" s="8"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B56" s="5">
         <f>PV(B36,A52-A42,,B52)</f>
         <v>-508349.29213471781</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B58" s="5">
-        <f>PMT(B36,A52,,B52)/B56</f>
-        <v>7.8282049993413899E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <f>-PMT(B36,A42,,B56)</f>
+        <v>-88397.21142808703</v>
+      </c>
+      <c r="F58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B62" s="5">
         <f>PV(B36,A52,,B52)</f>
         <v>-362446.01964235969</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B64" s="5">
-        <f>PMT(B36,A52,B62)</f>
-        <v>39794.624701006527</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <f>-PMT(B36,A42,B62)</f>
+        <v>-88397.21142808703</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B68" s="1" t="s">
         <v>25</v>
       </c>
@@ -1050,27 +1143,44 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D69" s="7"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="7">
+        <f>-PV(0.08,3,,1)</f>
+        <v>0.79383224102016958</v>
+      </c>
+      <c r="E69">
+        <f>1/(1.08^3)</f>
+        <v>0.79383224102016958</v>
+      </c>
+      <c r="G69" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="6"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C70" s="1">
+        <f>1500000/D70</f>
+        <v>579673.29629120615</v>
+      </c>
+      <c r="D70" s="6">
+        <f>2*D69+1</f>
+        <v>2.5876644820403394</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D71" s="5"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>1</v>
       </c>
@@ -1078,7 +1188,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0</v>
       </c>
@@ -1086,28 +1196,40 @@
         <v>-4000</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1</v>
       </c>
       <c r="B78" s="1">
         <v>-4000</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C78" s="1">
+        <f>$B$86</f>
+        <v>-6562.8421835254903</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2</v>
       </c>
       <c r="B79" s="1">
         <v>-3000</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C79" s="1">
+        <f t="shared" ref="C79:C84" si="3">$B$86</f>
+        <v>-6562.8421835254903</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>3</v>
       </c>
       <c r="B80" s="1">
         <v>-2000</v>
+      </c>
+      <c r="C80" s="1">
+        <f t="shared" si="3"/>
+        <v>-6562.8421835254903</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -1117,6 +1239,10 @@
       <c r="B81" s="1">
         <v>-6000</v>
       </c>
+      <c r="C81" s="1">
+        <f t="shared" si="3"/>
+        <v>-6562.8421835254903</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
@@ -1125,6 +1251,10 @@
       <c r="B82" s="1">
         <v>-8000</v>
       </c>
+      <c r="C82" s="1">
+        <f t="shared" si="3"/>
+        <v>-6562.8421835254903</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
@@ -1133,6 +1263,10 @@
       <c r="B83" s="1">
         <v>-10000</v>
       </c>
+      <c r="C83" s="1">
+        <f t="shared" si="3"/>
+        <v>-6562.8421835254903</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
@@ -1141,6 +1275,10 @@
       <c r="B84" s="1">
         <v>-12000</v>
       </c>
+      <c r="C84" s="1">
+        <f t="shared" si="3"/>
+        <v>-6562.8421835254903</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
@@ -1156,8 +1294,8 @@
         <v>20</v>
       </c>
       <c r="B86" s="5">
-        <f>PMT(B76,A84,,B85)</f>
-        <v>2467.2154639569785</v>
+        <f>-PMT(B76,A84,B85)</f>
+        <v>-6562.8421835254903</v>
       </c>
       <c r="E86" s="1"/>
     </row>
